--- a/BOM_OCLab.xlsx
+++ b/BOM_OCLab.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="78">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -118,12 +118,18 @@
     <t xml:space="preserve">Screw M5 x 10</t>
   </si>
   <si>
+    <t xml:space="preserve">pack of 100 (X needed) hex type</t>
+  </si>
+  <si>
     <t xml:space="preserve">Screw M5 x 16</t>
   </si>
   <si>
     <t xml:space="preserve">Screw M3 x 30</t>
   </si>
   <si>
+    <t xml:space="preserve">pack of 100 (X needed) phillips or slotted type</t>
+  </si>
+  <si>
     <t xml:space="preserve">Screw M3 x 10</t>
   </si>
   <si>
@@ -163,6 +169,9 @@
     <t xml:space="preserve">raspberry pi</t>
   </si>
   <si>
+    <t xml:space="preserve">Model 3 is better but model 2 is compatible.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Conrad</t>
   </si>
   <si>
@@ -221,6 +230,9 @@
   </si>
   <si>
     <t xml:space="preserve">Prototype soldering plate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60*40 mm</t>
   </si>
   <si>
     <t xml:space="preserve">Breadboard Jumper Wires Ribbon Cable </t>
@@ -397,7 +409,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -485,17 +497,17 @@
   <dimension ref="1:47"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A47" activeCellId="0" sqref="A47"/>
+      <selection pane="topLeft" activeCell="B33" activeCellId="0" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="31.9948979591837"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="74.8571428571429"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="24.7040816326531"/>
-    <col collapsed="false" hidden="false" max="1019" min="5" style="1" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="1020" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="37.5255102040816"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="81.8061224489796"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="26.7295918367347"/>
+    <col collapsed="false" hidden="false" max="1019" min="5" style="1" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="1025" min="1020" style="0" width="8.63775510204082"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -733,7 +745,7 @@
         <v>31</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>9</v>
@@ -745,10 +757,10 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>9</v>
@@ -760,10 +772,10 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>9</v>
@@ -775,10 +787,10 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>9</v>
@@ -790,10 +802,10 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>9</v>
@@ -805,10 +817,10 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>9</v>
@@ -820,7 +832,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>8</v>
@@ -835,7 +847,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>8</v>
@@ -850,7 +862,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>8</v>
@@ -865,7 +877,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>8</v>
@@ -880,7 +892,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>8</v>
@@ -895,7 +907,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>8</v>
@@ -910,13 +922,13 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D28" s="7" t="n">
         <v>0</v>
@@ -925,13 +937,13 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B29" s="6" t="n">
-        <v>1</v>
+        <v>48</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D29" s="7" t="n">
         <v>35</v>
@@ -940,13 +952,13 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B30" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D30" s="7" t="n">
         <v>10</v>
@@ -955,13 +967,13 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B31" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D31" s="7" t="n">
         <v>10</v>
@@ -970,7 +982,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B32" s="6" t="n">
         <v>1</v>
@@ -985,13 +997,13 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B33" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D33" s="7" t="n">
         <v>25</v>
@@ -1000,13 +1012,13 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D34" s="7" t="n">
         <v>5</v>
@@ -1015,13 +1027,13 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B35" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D35" s="7" t="n">
         <v>30</v>
@@ -1030,7 +1042,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B36" s="6" t="n">
         <v>1</v>
@@ -1045,7 +1057,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B37" s="6" t="n">
         <v>2</v>
@@ -1060,7 +1072,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B38" s="6" t="n">
         <v>2</v>
@@ -1075,13 +1087,13 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B39" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D39" s="7" t="n">
         <v>100</v>
@@ -1090,10 +1102,10 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>14</v>
@@ -1105,13 +1117,13 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B41" s="7" t="n">
         <v>3</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D41" s="7" t="n">
         <v>5</v>
@@ -1119,13 +1131,13 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D42" s="7" t="n">
         <v>10</v>
@@ -1133,9 +1145,11 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B43" s="8"/>
+        <v>69</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>70</v>
+      </c>
       <c r="C43" s="7" t="s">
         <v>14</v>
       </c>
@@ -1145,7 +1159,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B44" s="8"/>
       <c r="C44" s="7" t="s">
@@ -1157,13 +1171,13 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D45" s="7" t="n">
         <v>200</v>
@@ -1171,10 +1185,10 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>9</v>
@@ -1185,7 +1199,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>

--- a/BOM_OCLab.xlsx
+++ b/BOM_OCLab.xlsx
@@ -10,7 +10,7 @@
   <sheets>
     <sheet name="BOM OCLab" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="80">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -43,16 +43,16 @@
     <t xml:space="preserve">Colorfabb</t>
   </si>
   <si>
-    <t xml:space="preserve">zip ties</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pack of 100 (X needed)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">local workshop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lm8uu bearing</t>
+    <t xml:space="preserve">Zip ties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pack of 100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Local workshop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m8uu bearing</t>
   </si>
   <si>
     <t xml:space="preserve">Motedis</t>
@@ -64,7 +64,7 @@
     <t xml:space="preserve">623zz bearing</t>
   </si>
   <si>
-    <t xml:space="preserve">amazon</t>
+    <t xml:space="preserve">Amazon</t>
   </si>
   <si>
     <t xml:space="preserve">gt2 belt</t>
@@ -79,7 +79,7 @@
     <t xml:space="preserve">Nema 14</t>
   </si>
   <si>
-    <t xml:space="preserve">emotiontech</t>
+    <t xml:space="preserve">Emotiontech</t>
   </si>
   <si>
     <t xml:space="preserve">8mm stainless steel rod</t>
@@ -94,16 +94,16 @@
     <t xml:space="preserve">5x215 mm (X) + 4x255 mm (Y) + 6x 210 mm (Z)</t>
   </si>
   <si>
-    <t xml:space="preserve">nut for 20x20 profile 5 I_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cube connector for 20x20 profile</t>
+    <t xml:space="preserve">Nut for 20x20 profile 5 I_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cube connector for 20x20 profile</t>
   </si>
   <si>
     <t xml:space="preserve">pack of 10 (6 needed)</t>
   </si>
   <si>
-    <t xml:space="preserve">angle connector for 20x20 profile</t>
+    <t xml:space="preserve">Angle connector for 20x20 profile</t>
   </si>
   <si>
     <t xml:space="preserve">pack of 10 (10 needed)</t>
@@ -118,7 +118,7 @@
     <t xml:space="preserve">Screw M5 x 10</t>
   </si>
   <si>
-    <t xml:space="preserve">pack of 100 (X needed) hex type</t>
+    <t xml:space="preserve">pack of 100 hex type</t>
   </si>
   <si>
     <t xml:space="preserve">Screw M5 x 16</t>
@@ -127,7 +127,7 @@
     <t xml:space="preserve">Screw M3 x 30</t>
   </si>
   <si>
-    <t xml:space="preserve">pack of 100 (X needed) phillips or slotted type</t>
+    <t xml:space="preserve">pack of 100 phillips or slotted type</t>
   </si>
   <si>
     <t xml:space="preserve">Screw M3 x 10</t>
@@ -139,22 +139,28 @@
     <t xml:space="preserve">Screw M4 x 20</t>
   </si>
   <si>
-    <t xml:space="preserve">nut M3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nut M4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nut M5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">washer M3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">washer M4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">washer M5</t>
+    <t xml:space="preserve">Nut M3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nut M4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nut M5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Washer M3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Washer M4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Washer M5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magnet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8: cylinder OD: 8 mm, height: 3mm</t>
   </si>
   <si>
     <t xml:space="preserve">Glass plates</t>
@@ -163,10 +169,10 @@
     <t xml:space="preserve">1 mm thick, recycled from commercial plates</t>
   </si>
   <si>
-    <t xml:space="preserve">recycled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">raspberry pi</t>
+    <t xml:space="preserve">Recycled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raspberry pi</t>
   </si>
   <si>
     <t xml:space="preserve">Model 3 is better but model 2 is compatible.</t>
@@ -178,37 +184,40 @@
     <t xml:space="preserve">5v 2.5 A power supply</t>
   </si>
   <si>
-    <t xml:space="preserve">16 Giga bit sd card</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ethernet cable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">raspebrry pi camera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">raspberry pi camera longer cable</t>
+    <t xml:space="preserve">For raspberry pi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 Giga bit SD card</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ethernet cable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raspebrry pi camera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raspberry pi camera longer cable</t>
   </si>
   <si>
     <t xml:space="preserve">200 mm is enough</t>
   </si>
   <si>
-    <t xml:space="preserve">arduino megga 2560</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ramp 1.4</t>
+    <t xml:space="preserve">Arduino megga 2560</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ramps 1.4</t>
   </si>
   <si>
     <t xml:space="preserve">A9688 motor driver</t>
   </si>
   <si>
-    <t xml:space="preserve">endstop</t>
+    <t xml:space="preserve">Endstop</t>
   </si>
   <si>
     <t xml:space="preserve">Inkshield board</t>
   </si>
   <si>
-    <t xml:space="preserve">nerdcreationlab</t>
+    <t xml:space="preserve">Nerdcreationlab</t>
   </si>
   <si>
     <t xml:space="preserve">12v 10A power supply</t>
@@ -220,9 +229,6 @@
     <t xml:space="preserve">NPN transistor 2n3904h33</t>
   </si>
   <si>
-    <t xml:space="preserve">conrad</t>
-  </si>
-  <si>
     <t xml:space="preserve">LED strip</t>
   </si>
   <si>
@@ -247,7 +253,7 @@
     <t xml:space="preserve">Crystal IS</t>
   </si>
   <si>
-    <t xml:space="preserve">power supply for UV LED</t>
+    <t xml:space="preserve">Power supply for UV LED</t>
   </si>
   <si>
     <t xml:space="preserve">No information</t>
@@ -263,7 +269,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -286,24 +292,11 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="10"/>
       <color rgb="FF00000A"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -316,8 +309,8 @@
     <font>
       <sz val="10"/>
       <color rgb="FF00000A"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -335,7 +328,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -344,9 +337,16 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="hair"/>
       <right style="hair"/>
-      <top style="hair"/>
+      <top/>
       <bottom style="hair"/>
       <diagonal/>
     </border>
@@ -376,36 +376,28 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -413,8 +405,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -494,20 +490,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:47"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B33" activeCellId="0" sqref="B33"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="96" zoomScaleNormal="96" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B32" activeCellId="0" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="37.5255102040816"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="81.8061224489796"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="26.7295918367347"/>
-    <col collapsed="false" hidden="false" max="1019" min="5" style="1" width="11.2040816326531"/>
-    <col collapsed="false" hidden="false" max="1025" min="1020" style="0" width="8.63775510204082"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="36.3112244897959"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="78.9693877551021"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="25.515306122449"/>
+    <col collapsed="false" hidden="false" max="1019" min="5" style="1" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1025" min="1020" style="1" width="8.10204081632653"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -523,694 +519,663 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AME1" s="5"/>
-      <c r="AMF1" s="5"/>
-      <c r="AMG1" s="5"/>
-      <c r="AMH1" s="5"/>
-      <c r="AMI1" s="5"/>
-      <c r="AMJ1" s="5"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="7" t="n">
+      <c r="D2" s="6" t="n">
         <v>13</v>
       </c>
-      <c r="AME2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="7" t="n">
+      <c r="C3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="AME3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="6" t="n">
+      <c r="B4" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="7" t="n">
+      <c r="D4" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="AME4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="6" t="n">
+      <c r="B5" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="7" t="n">
+      <c r="D5" s="6" t="n">
         <v>12</v>
       </c>
-      <c r="AME5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="6" t="n">
+      <c r="B6" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="7" t="n">
+      <c r="D6" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="AME6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="7" t="n">
+      <c r="D7" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="AME7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="6" t="n">
+      <c r="B8" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="7" t="n">
+      <c r="D8" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="AME8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="6" t="n">
+      <c r="B9" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="7" t="n">
+      <c r="D9" s="6" t="n">
         <v>30</v>
       </c>
-      <c r="AME9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="7" t="n">
+      <c r="D10" s="6" t="n">
         <v>15</v>
       </c>
-      <c r="AME10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="7" t="n">
+      <c r="D11" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="AME11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="7" t="n">
+      <c r="D12" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="AME12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="7" t="n">
+      <c r="D13" s="6" t="n">
         <v>25</v>
       </c>
-      <c r="AME13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="7" t="n">
+      <c r="D14" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="AME14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="7" t="n">
+      <c r="C15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="6" t="n">
         <v>30</v>
       </c>
-      <c r="AME15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="7" t="n">
+      <c r="C16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="AME16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="7" t="n">
+      <c r="C17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="AME17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="7" t="n">
+      <c r="C18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="AME18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="7" t="n">
+      <c r="C19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="AME19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="7" t="n">
+      <c r="C20" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="AME20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="7" t="n">
+      <c r="C21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="AME21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="7" t="n">
+      <c r="C22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="AME22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="7" t="n">
+      <c r="C23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="AME23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="7" t="n">
+      <c r="C24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="AME24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="7" t="n">
+      <c r="C25" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="AME25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="7" t="n">
+      <c r="C26" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="AME26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="7" t="n">
+      <c r="C27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="AME27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D28" s="7" t="n">
+      <c r="B29" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AME28" s="0"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C29" s="7" t="s">
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D29" s="7" t="n">
+      <c r="B30" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" s="6" t="n">
         <v>35</v>
       </c>
-      <c r="AME29" s="0"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B30" s="6" t="n">
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C32" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" s="6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" s="6" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" s="6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" s="6" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="6" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B38" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="6" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="6" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D42" s="6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D43" s="6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D46" s="6" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="6" t="n">
         <v>50</v>
       </c>
-      <c r="D30" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AME30" s="0"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B31" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D31" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AME31" s="0"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B32" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AME32" s="0"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D33" s="7" t="n">
-        <v>25</v>
-      </c>
-      <c r="AME33" s="0"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D34" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AME34" s="0"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B35" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D35" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="AME35" s="0"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B36" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D36" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="AME36" s="0"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B37" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D37" s="7" t="n">
-        <v>20</v>
-      </c>
-      <c r="AME37" s="0"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B38" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D38" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AME38" s="0"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B39" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D39" s="7" t="n">
-        <v>100</v>
-      </c>
-      <c r="AME39" s="0"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D40" s="7" t="n">
-        <v>20</v>
-      </c>
-      <c r="AME40" s="0"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B41" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D41" s="7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D42" s="7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D43" s="7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B44" s="8"/>
-      <c r="C44" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D44" s="7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D45" s="7" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="8" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="3" t="n">
-        <f aca="false">SUM(D2:D46)</f>
-        <v>808</v>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="8" t="n">
+        <f aca="false">SUM(D2:D47)</f>
+        <v>810</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A48:C48"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
